--- a/data-raw/metadata/delta_entry_release_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB295CF4-11C7-3E4A-A830-42D629596939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC78F28-4DBB-3B4B-82ED-17B3F4BB75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>commonName</t>
   </si>
   <si>
-    <t>Common name of marked species</t>
-  </si>
-  <si>
     <t>markedRun</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>sourceOfFishSite</t>
-  </si>
-  <si>
-    <t>Site where fish used for release were from</t>
   </si>
   <si>
     <t>releaseSite</t>
@@ -163,9 +157,6 @@
     <t>appliedMarkColor</t>
   </si>
   <si>
-    <t>Color of mark that was applied to the release group. Levels = "Brown"</t>
-  </si>
-  <si>
     <t>appliedMarkPosition</t>
   </si>
   <si>
@@ -199,22 +190,31 @@
     <t>Lifestage of fish marked.</t>
   </si>
   <si>
-    <t>Origin or production type of fish marked. Levels = c("Natural", "Hatchery")</t>
-  </si>
-  <si>
     <t>Site where fish were released. Level = "Lower Feather River Release Site"</t>
-  </si>
-  <si>
-    <t>Subsite (within site) where fish were released. Corresponds to a trap location. Level = "1 RM Upstream"</t>
   </si>
   <si>
     <t>Whether or not to include data in analysis. Level = "Yes"</t>
   </si>
   <si>
-    <t>Lower Feather River RST</t>
+    <t>Foreign key to the CAMP ProjectDescription table. For the Delta Entry RST data projectDescriptionID = 10.</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For the Lower Feather River data projectDescriptionID = 12.</t>
+    <t>Common name of marked species. Level = "Chinook salmon"</t>
+  </si>
+  <si>
+    <t>Origin or production type of fish marked. Level = "Hatchery"</t>
+  </si>
+  <si>
+    <t>Site where fish used for release were from. Level = "Lower Sacramento River Release Site"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsite (within site) where fish were released. Corresponds to a trap location. </t>
+  </si>
+  <si>
+    <t>Color of mark that was applied to the release group. Levels = "Blue"</t>
+  </si>
+  <si>
+    <t>Delta Entry RST</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -690,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -953,37 +953,37 @@
     </row>
     <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="M11" s="3">
-        <v>1302</v>
+        <v>499</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1001,33 +1001,33 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="14">
-        <v>44593.500127314815</v>
+        <v>44658.552256944444</v>
       </c>
       <c r="M12" s="14">
-        <v>44678.503599537034</v>
+        <v>44678.583506944444</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1045,28 +1045,28 @@
     </row>
     <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="M13" s="3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -28833,7 +28833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z666"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -28847,13 +28847,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28881,10 +28881,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_release_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC78F28-4DBB-3B4B-82ED-17B3F4BB75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2CDB31-DE1A-6F42-8898-08560F341ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -103,9 +103,6 @@
     <t>markedFishOrigin</t>
   </si>
   <si>
-    <t>sourceOfFishSite</t>
-  </si>
-  <si>
     <t>releaseSite</t>
   </si>
   <si>
@@ -163,12 +160,6 @@
     <t>Position of the mark that was applied to the mark group. Levels = "Whole body"</t>
   </si>
   <si>
-    <t>appliedMarkCode</t>
-  </si>
-  <si>
-    <t>Code for mark/tag applied to release group</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
   </si>
   <si>
     <t>includeAnalysis</t>
-  </si>
-  <si>
-    <t>Run of fish marked. Level = "Fall"</t>
   </si>
   <si>
     <t>Lifestage of fish marked.</t>
@@ -205,9 +193,6 @@
     <t>Origin or production type of fish marked. Level = "Hatchery"</t>
   </si>
   <si>
-    <t>Site where fish used for release were from. Level = "Lower Sacramento River Release Site"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subsite (within site) where fish were released. Corresponds to a trap location. </t>
   </si>
   <si>
@@ -215,6 +200,9 @@
   </si>
   <si>
     <t>Delta Entry RST</t>
+  </si>
+  <si>
+    <t>Run of fish marked. Level = "Fall", "Spring"</t>
   </si>
 </sst>
 </file>
@@ -532,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -614,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -690,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -728,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -766,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -804,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -842,7 +830,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -880,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -913,30 +901,40 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>487</v>
+      </c>
+      <c r="M10" s="3">
+        <v>499</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -951,39 +949,35 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6" t="s">
+        <v>35</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>50</v>
+      <c r="K11" s="2"/>
+      <c r="L11" s="14">
+        <v>44658.552256944444</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>487</v>
-      </c>
-      <c r="M11" s="3">
-        <v>499</v>
+      <c r="M11" s="14">
+        <v>44678.583506944444</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -999,35 +993,39 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="6" t="s">
-        <v>36</v>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3">
+        <v>7</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="14">
-        <v>44658.552256944444</v>
-      </c>
-      <c r="M12" s="14">
-        <v>44678.583506944444</v>
+      <c r="M12" s="3">
+        <v>34</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1043,40 +1041,30 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3">
-        <v>34</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1093,10 +1081,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1133,8 +1121,8 @@
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1169,15 +1157,15 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1206,21 +1194,11 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1244,21 +1222,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1758,7 +1726,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -1786,7 +1754,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -1870,7 +1838,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1898,7 +1866,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2822,7 +2790,7 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -2850,7 +2818,7 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -28749,78 +28717,22 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C56:C999 C1:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F999" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C46 C58:C1001" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H999" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28833,7 +28745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -28847,13 +28759,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28884,7 +28796,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_release_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2CDB31-DE1A-6F42-8898-08560F341ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58582F77-9B2A-3047-BD67-FAB16CD50658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -178,13 +178,7 @@
     <t>Lifestage of fish marked.</t>
   </si>
   <si>
-    <t>Site where fish were released. Level = "Lower Feather River Release Site"</t>
-  </si>
-  <si>
     <t>Whether or not to include data in analysis. Level = "Yes"</t>
-  </si>
-  <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For the Delta Entry RST data projectDescriptionID = 10.</t>
   </si>
   <si>
     <t>Common name of marked species. Level = "Chinook salmon"</t>
@@ -202,7 +196,13 @@
     <t>Delta Entry RST</t>
   </si>
   <si>
-    <t>Run of fish marked. Level = "Fall", "Spring"</t>
+    <t xml:space="preserve">Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 10. </t>
+  </si>
+  <si>
+    <t>Run of fish marked. Level = c("Fall", "Spring")</t>
+  </si>
+  <si>
+    <t>Site where fish were released. Level = "Lower Sacramento River Release Site"</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,6 +305,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -678,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -716,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -792,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -830,7 +835,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -868,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -901,53 +906,53 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3">
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="19">
         <v>487</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="19">
         <v>499</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -993,53 +998,53 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3">
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19">
         <v>7</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="19">
         <v>34</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1084,7 +1089,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1160,7 +1165,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -28745,7 +28750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z666"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -28796,7 +28801,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_release_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58582F77-9B2A-3047-BD67-FAB16CD50658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67888F-5F5C-A847-AF2D-D245E715FA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -199,10 +199,10 @@
     <t xml:space="preserve">Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 10. </t>
   </si>
   <si>
-    <t>Run of fish marked. Level = c("Fall", "Spring")</t>
+    <t>Site where fish were released. Level = "Lower Sacramento River Release Site"</t>
   </si>
   <si>
-    <t>Site where fish were released. Level = "Lower Sacramento River Release Site"</t>
+    <t>Run of fish marked. Level = c("Fall"")</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,11 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -721,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -835,7 +830,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -906,53 +901,53 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="19">
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9">
         <v>487</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="9">
         <v>499</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -998,53 +993,53 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="19">
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9">
         <v>7</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="9">
         <v>34</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -28750,7 +28745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
